--- a/main.xlsx
+++ b/main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Mathis Sport Graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B64FC4-7C89-40D8-80F1-39A81D88D368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715083E1-A636-4684-8C52-17FAA2EE1C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="U15R" sheetId="1" r:id="rId1"/>
@@ -938,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43:C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1142,9 +1142,9 @@
         <f>IF(+COUNT(B6:B11)=0,"",+AVERAGE(B6:B11))</f>
         <v>12.833333333333334</v>
       </c>
-      <c r="C4" s="8" t="str">
+      <c r="C4" s="8">
         <f t="shared" ref="C4:Z4" si="0">IF(+COUNT(C6:C11)=0,"",+AVERAGE(C6:C11))</f>
-        <v/>
+        <v>12.833333333333334</v>
       </c>
       <c r="D4" s="8" t="str">
         <f t="shared" si="0"/>
@@ -1276,7 +1276,9 @@
       <c r="B6" s="9">
         <v>12</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="9">
+        <v>12</v>
+      </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -1309,7 +1311,9 @@
       <c r="B7" s="9">
         <v>13</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="9">
+        <v>13</v>
+      </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -1342,7 +1346,9 @@
       <c r="B8" s="9">
         <v>14</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="9">
+        <v>14</v>
+      </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -1375,7 +1381,9 @@
       <c r="B9" s="9">
         <v>15</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="9">
+        <v>15</v>
+      </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -1408,7 +1416,9 @@
       <c r="B10" s="9">
         <v>12</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="9">
+        <v>12</v>
+      </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -1441,7 +1451,9 @@
       <c r="B11" s="9">
         <v>11</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="9">
+        <v>11</v>
+      </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -1504,9 +1516,9 @@
         <f t="shared" ref="B13:Z13" si="1">IF(+COUNT(B15:B20)=0,"",+AVERAGE(B15:B20))</f>
         <v>11.166666666666666</v>
       </c>
-      <c r="C13" s="8" t="str">
+      <c r="C13" s="8">
         <f t="shared" si="1"/>
-        <v/>
+        <v>11.166666666666666</v>
       </c>
       <c r="D13" s="8" t="str">
         <f t="shared" si="1"/>
@@ -1638,7 +1650,9 @@
       <c r="B15" s="9">
         <v>5</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="9">
+        <v>5</v>
+      </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -1671,7 +1685,9 @@
       <c r="B16" s="9">
         <v>13</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="9">
+        <v>13</v>
+      </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -1704,7 +1720,9 @@
       <c r="B17" s="9">
         <v>12</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="9">
+        <v>12</v>
+      </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -1737,7 +1755,9 @@
       <c r="B18" s="9">
         <v>13</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="9">
+        <v>13</v>
+      </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -1770,7 +1790,9 @@
       <c r="B19" s="9">
         <v>12</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="9">
+        <v>12</v>
+      </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -1803,7 +1825,9 @@
       <c r="B20" s="9">
         <v>12</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="9">
+        <v>12</v>
+      </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -1866,9 +1890,9 @@
         <f t="shared" ref="B22:Z22" si="2">IF(+COUNT(B24:B30)=0,"",+AVERAGE(B24:B30))</f>
         <v>12.857142857142858</v>
       </c>
-      <c r="C22" s="8" t="str">
+      <c r="C22" s="8">
         <f t="shared" si="2"/>
-        <v/>
+        <v>12.857142857142858</v>
       </c>
       <c r="D22" s="8" t="str">
         <f t="shared" si="2"/>
@@ -2000,7 +2024,9 @@
       <c r="B24" s="9">
         <v>15</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" s="9">
+        <v>15</v>
+      </c>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
@@ -2033,7 +2059,9 @@
       <c r="B25" s="9">
         <v>15</v>
       </c>
-      <c r="C25" s="10"/>
+      <c r="C25" s="9">
+        <v>15</v>
+      </c>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -2066,7 +2094,9 @@
       <c r="B26" s="9">
         <v>12</v>
       </c>
-      <c r="C26" s="10"/>
+      <c r="C26" s="9">
+        <v>12</v>
+      </c>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -2099,7 +2129,9 @@
       <c r="B27" s="9">
         <v>12</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="9">
+        <v>12</v>
+      </c>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
@@ -2132,7 +2164,9 @@
       <c r="B28" s="9">
         <v>12</v>
       </c>
-      <c r="C28" s="10"/>
+      <c r="C28" s="9">
+        <v>12</v>
+      </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -2165,7 +2199,9 @@
       <c r="B29" s="9">
         <v>12</v>
       </c>
-      <c r="C29" s="10"/>
+      <c r="C29" s="9">
+        <v>12</v>
+      </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
@@ -2198,7 +2234,9 @@
       <c r="B30" s="9">
         <v>12</v>
       </c>
-      <c r="C30" s="10"/>
+      <c r="C30" s="9">
+        <v>12</v>
+      </c>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
@@ -2261,9 +2299,9 @@
         <f t="shared" ref="B32:Z32" si="3">IF(+COUNT(B34:B39)=0,"",+AVERAGE(B34:B39))</f>
         <v>12</v>
       </c>
-      <c r="C32" s="8" t="str">
+      <c r="C32" s="8">
         <f t="shared" si="3"/>
-        <v/>
+        <v>12</v>
       </c>
       <c r="D32" s="8" t="str">
         <f t="shared" si="3"/>
@@ -2395,7 +2433,9 @@
       <c r="B34" s="9">
         <v>12</v>
       </c>
-      <c r="C34" s="10"/>
+      <c r="C34" s="9">
+        <v>12</v>
+      </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
@@ -2428,7 +2468,9 @@
       <c r="B35" s="9">
         <v>11</v>
       </c>
-      <c r="C35" s="10"/>
+      <c r="C35" s="9">
+        <v>11</v>
+      </c>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -2461,7 +2503,9 @@
       <c r="B36" s="9">
         <v>11</v>
       </c>
-      <c r="C36" s="10"/>
+      <c r="C36" s="9">
+        <v>11</v>
+      </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -2494,7 +2538,9 @@
       <c r="B37" s="9">
         <v>11</v>
       </c>
-      <c r="C37" s="10"/>
+      <c r="C37" s="9">
+        <v>11</v>
+      </c>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
@@ -2527,7 +2573,9 @@
       <c r="B38" s="9">
         <v>13</v>
       </c>
-      <c r="C38" s="10"/>
+      <c r="C38" s="9">
+        <v>13</v>
+      </c>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -2560,7 +2608,9 @@
       <c r="B39" s="9">
         <v>14</v>
       </c>
-      <c r="C39" s="10"/>
+      <c r="C39" s="9">
+        <v>14</v>
+      </c>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -2623,9 +2673,9 @@
         <f t="shared" ref="B41:Z41" si="4">IF(+COUNT(B43:B50)=0,"",+AVERAGE(B43:B50))</f>
         <v>13</v>
       </c>
-      <c r="C41" s="8" t="str">
+      <c r="C41" s="8">
         <f t="shared" si="4"/>
-        <v/>
+        <v>13</v>
       </c>
       <c r="D41" s="8" t="str">
         <f t="shared" si="4"/>
@@ -2757,7 +2807,9 @@
       <c r="B43" s="9">
         <v>15</v>
       </c>
-      <c r="C43" s="10"/>
+      <c r="C43" s="9">
+        <v>15</v>
+      </c>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -2790,7 +2842,9 @@
       <c r="B44" s="9">
         <v>12</v>
       </c>
-      <c r="C44" s="10"/>
+      <c r="C44" s="9">
+        <v>12</v>
+      </c>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -2823,7 +2877,9 @@
       <c r="B45" s="9">
         <v>13</v>
       </c>
-      <c r="C45" s="10"/>
+      <c r="C45" s="9">
+        <v>13</v>
+      </c>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -2856,7 +2912,9 @@
       <c r="B46" s="9">
         <v>12</v>
       </c>
-      <c r="C46" s="10"/>
+      <c r="C46" s="9">
+        <v>12</v>
+      </c>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -2889,7 +2947,9 @@
       <c r="B47" s="9">
         <v>12</v>
       </c>
-      <c r="C47" s="10"/>
+      <c r="C47" s="9">
+        <v>12</v>
+      </c>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -2922,7 +2982,9 @@
       <c r="B48" s="9">
         <v>14</v>
       </c>
-      <c r="C48" s="10"/>
+      <c r="C48" s="9">
+        <v>14</v>
+      </c>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -2955,7 +3017,9 @@
       <c r="B49" s="9">
         <v>13</v>
       </c>
-      <c r="C49" s="10"/>
+      <c r="C49" s="9">
+        <v>13</v>
+      </c>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -2988,7 +3052,9 @@
       <c r="B50" s="9">
         <v>13</v>
       </c>
-      <c r="C50" s="10"/>
+      <c r="C50" s="9">
+        <v>13</v>
+      </c>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -4002,7 +4068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
@@ -4191,7 +4257,7 @@
         <v>12.833333333333334</v>
       </c>
       <c r="C4" s="8" t="str">
-        <f t="shared" ref="B4:Z4" si="0">IF(+COUNT(C6:C11)=0,"",+AVERAGE(C6:C11))</f>
+        <f t="shared" ref="C4:Z4" si="0">IF(+COUNT(C6:C11)=0,"",+AVERAGE(C6:C11))</f>
         <v/>
       </c>
       <c r="D4" s="8" t="str">
@@ -4553,7 +4619,7 @@
         <v>11.166666666666666</v>
       </c>
       <c r="C13" s="8" t="str">
-        <f t="shared" ref="B13:Z13" si="2">IF(+COUNT(C15:C20)=0,"",+AVERAGE(C15:C20))</f>
+        <f t="shared" ref="C13:Z13" si="2">IF(+COUNT(C15:C20)=0,"",+AVERAGE(C15:C20))</f>
         <v/>
       </c>
       <c r="D13" s="8" t="str">
@@ -4915,7 +4981,7 @@
         <v>12.857142857142858</v>
       </c>
       <c r="C22" s="8" t="str">
-        <f t="shared" ref="B22:Z22" si="4">IF(+COUNT(C24:C30)=0,"",+AVERAGE(C24:C30))</f>
+        <f t="shared" ref="C22:Z22" si="4">IF(+COUNT(C24:C30)=0,"",+AVERAGE(C24:C30))</f>
         <v/>
       </c>
       <c r="D22" s="8" t="str">
@@ -5310,7 +5376,7 @@
         <v>12</v>
       </c>
       <c r="C32" s="8" t="str">
-        <f t="shared" ref="B32:Z32" si="6">IF(+COUNT(C34:C39)=0,"",+AVERAGE(C34:C39))</f>
+        <f t="shared" ref="C32:Z32" si="6">IF(+COUNT(C34:C39)=0,"",+AVERAGE(C34:C39))</f>
         <v/>
       </c>
       <c r="D32" s="8" t="str">
@@ -5672,7 +5738,7 @@
         <v>13</v>
       </c>
       <c r="C41" s="8" t="str">
-        <f t="shared" ref="B41:Z41" si="8">IF(+COUNT(C43:C50)=0,"",+AVERAGE(C43:C50))</f>
+        <f t="shared" ref="C41:Z41" si="8">IF(+COUNT(C43:C50)=0,"",+AVERAGE(C43:C50))</f>
         <v/>
       </c>
       <c r="D41" s="8" t="str">
